--- a/Optimisation data/combined/Biomarkers + Clinical C/top/RF_feature_importance/metrics_table.xlsx
+++ b/Optimisation data/combined/Biomarkers + Clinical C/top/RF_feature_importance/metrics_table.xlsx
@@ -522,37 +522,37 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.8234491033640211</v>
+        <v>0.6864069264069264</v>
       </c>
       <c r="C4">
-        <v>0.03932485644646844</v>
+        <v>0.1595858452183304</v>
       </c>
       <c r="D4">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="E4">
-        <v>0.3488372093023256</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="F4">
-        <v>0.7674418604651163</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="G4">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
         <v>0.3333333333333333</v>
       </c>
       <c r="I4">
-        <v>0.4004050053069661</v>
+        <v>0.4166983114351535</v>
       </c>
       <c r="J4">
-        <v>0.7091503267973855</v>
+        <v>0.738562091503268</v>
       </c>
       <c r="K4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>6</v>
@@ -561,10 +561,10 @@
         <v>3</v>
       </c>
       <c r="O4">
-        <v>0.7658708133971291</v>
+        <v>0.8683333333333334</v>
       </c>
       <c r="P4">
-        <v>0.07284018495081455</v>
+        <v>0.06311365409587162</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -572,49 +572,49 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0.7851375018092343</v>
+        <v>0.7406060606060606</v>
       </c>
       <c r="C5">
-        <v>0.02067441051373594</v>
+        <v>0.1070790924865831</v>
       </c>
       <c r="D5">
-        <v>0.5882352941176471</v>
+        <v>0.4800000000000001</v>
       </c>
       <c r="E5">
-        <v>0.5681818181818182</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="F5">
-        <v>0.8372093023255814</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="G5">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="H5">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I5">
-        <v>0.5108879173395302</v>
+        <v>0.3809355902923154</v>
       </c>
       <c r="J5">
-        <v>0.7549019607843137</v>
+        <v>0.7026143790849673</v>
       </c>
       <c r="K5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
       <c r="N5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>0.5622870813397128</v>
+        <v>0.8922222222222222</v>
       </c>
       <c r="P5">
-        <v>0.04559416883719228</v>
+        <v>0.05693834655697311</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -622,10 +622,10 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.6936977413870867</v>
+        <v>0.7311688311688311</v>
       </c>
       <c r="C6">
-        <v>0.03312544100067901</v>
+        <v>0.05510603165703743</v>
       </c>
       <c r="D6">
         <v>0.4827586206896551</v>
@@ -643,10 +643,10 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="I6">
-        <v>0.4430936175077734</v>
+        <v>0.4372775372775373</v>
       </c>
       <c r="J6">
-        <v>0.7254901960784313</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="K6">
         <v>21</v>
@@ -661,10 +661,10 @@
         <v>7</v>
       </c>
       <c r="O6">
-        <v>0.6363588516746411</v>
+        <v>0.9122222222222222</v>
       </c>
       <c r="P6">
-        <v>0.1108183969750727</v>
+        <v>0.04042978977480057</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -672,37 +672,37 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.7617336152219872</v>
+        <v>0.6303896103896104</v>
       </c>
       <c r="C7">
-        <v>0.02889221193379539</v>
+        <v>0.1432146647838185</v>
       </c>
       <c r="D7">
-        <v>0.375</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E7">
-        <v>0.3488372093023256</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="F7">
-        <v>0.7674418604651163</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="G7">
-        <v>0.4285714285714285</v>
+        <v>0.6</v>
       </c>
       <c r="H7">
         <v>0.3333333333333333</v>
       </c>
       <c r="I7">
-        <v>0.3965036187802406</v>
+        <v>0.5066968130921619</v>
       </c>
       <c r="J7">
-        <v>0.7189542483660131</v>
+        <v>0.7287581699346404</v>
       </c>
       <c r="K7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -711,10 +711,10 @@
         <v>3</v>
       </c>
       <c r="O7">
-        <v>0.5885980861244019</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="P7">
-        <v>0.1068423469614598</v>
+        <v>0.1127435635019184</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -722,10 +722,10 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0.7821035856800254</v>
+        <v>0.5944444444444443</v>
       </c>
       <c r="C8">
-        <v>0.04042455321235098</v>
+        <v>0.2370081000855727</v>
       </c>
       <c r="D8">
         <v>0.5555555555555556</v>
@@ -743,7 +743,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="I8">
-        <v>0.4711394118370863</v>
+        <v>0.4096587390065651</v>
       </c>
       <c r="J8">
         <v>0.7320261437908496</v>
@@ -761,10 +761,10 @@
         <v>5</v>
       </c>
       <c r="O8">
-        <v>0.7375167464114832</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="P8">
-        <v>0.04971508853155982</v>
+        <v>0.06411794687223779</v>
       </c>
     </row>
   </sheetData>
